--- a/TEMP/MTN -Congo_backup_tracker_OUT.xlsx
+++ b/TEMP/MTN -Congo_backup_tracker_OUT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup tracker\congo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eaakgar\AppData\Local\Temp\scp40312\home\ubuntu\perl-to-python\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0476C411-118D-4094-9024-3A2352AA23CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853AB466-7CC5-4FC4-9BDB-B215156E8B9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="MINSAT" sheetId="6" r:id="rId6"/>
     <sheet name="EMA" sheetId="7" r:id="rId7"/>
     <sheet name="OCC" sheetId="10" r:id="rId8"/>
+    <sheet name="air_monthly" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">NGVS!$A$1:$F$5</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="31">
   <si>
     <t xml:space="preserve">Node Name  </t>
   </si>
@@ -116,6 +117,18 @@
   </si>
   <si>
     <t>FS Backup Status</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>akash</t>
+  </si>
+  <si>
+    <t>eric</t>
   </si>
 </sst>
 </file>
@@ -950,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:XFD23"/>
     </sheetView>
   </sheetViews>
@@ -1363,7 +1376,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1854,4 +1867,35 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36476E9E-BCEA-49C8-A38D-043F7A2C38C0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TEMP/MTN -Congo_backup_tracker_OUT.xlsx
+++ b/TEMP/MTN -Congo_backup_tracker_OUT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eaakgar\AppData\Local\Temp\scp40312\home\ubuntu\perl-to-python\TEMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup tracker\congo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853AB466-7CC5-4FC4-9BDB-B215156E8B9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0476C411-118D-4094-9024-3A2352AA23CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="MINSAT" sheetId="6" r:id="rId6"/>
     <sheet name="EMA" sheetId="7" r:id="rId7"/>
     <sheet name="OCC" sheetId="10" r:id="rId8"/>
-    <sheet name="air_monthly" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">NGVS!$A$1:$F$5</definedName>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="27">
   <si>
     <t xml:space="preserve">Node Name  </t>
   </si>
@@ -117,18 +116,6 @@
   </si>
   <si>
     <t>FS Backup Status</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>akash</t>
-  </si>
-  <si>
-    <t>eric</t>
   </si>
 </sst>
 </file>
@@ -963,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:XFD23"/>
     </sheetView>
   </sheetViews>
@@ -1376,7 +1363,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1867,35 +1854,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36476E9E-BCEA-49C8-A38D-043F7A2C38C0}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TEMP/MTN -Congo_backup_tracker_OUT.xlsx
+++ b/TEMP/MTN -Congo_backup_tracker_OUT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup tracker\congo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eaakgar\AppData\Local\Temp\scp47488\home\ubuntu\perl-to-python\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0476C411-118D-4094-9024-3A2352AA23CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DAE993-F9A7-482B-9110-B0BFE182FA50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="MINSAT" sheetId="6" r:id="rId6"/>
     <sheet name="EMA" sheetId="7" r:id="rId7"/>
     <sheet name="OCC" sheetId="10" r:id="rId8"/>
+    <sheet name="Logs" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">NGVS!$A$1:$F$5</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="30">
   <si>
     <t xml:space="preserve">Node Name  </t>
   </si>
@@ -116,6 +117,15 @@
   </si>
   <si>
     <t>FS Backup Status</t>
+  </si>
+  <si>
+    <t>Logs</t>
+  </si>
+  <si>
+    <t>Node Type</t>
+  </si>
+  <si>
+    <t>Back Type</t>
   </si>
 </sst>
 </file>
@@ -285,7 +295,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -418,6 +428,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,6 +457,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -950,7 +976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:XFD23"/>
     </sheetView>
   </sheetViews>
@@ -984,7 +1010,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="17"/>
@@ -993,21 +1019,21 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="51"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="30"/>
       <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="51"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="30"/>
       <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="52"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="30"/>
@@ -1031,7 +1057,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="18"/>
@@ -1040,21 +1066,21 @@
       <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="48"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="30"/>
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="48"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="30"/>
       <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="49"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="30"/>
@@ -1078,7 +1104,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="47" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="15"/>
@@ -1087,7 +1113,7 @@
       <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="45"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="30"/>
@@ -1117,7 +1143,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="52" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="39"/>
@@ -1128,7 +1154,7 @@
       <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="51"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="37"/>
@@ -1137,7 +1163,7 @@
       <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="51"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="37"/>
@@ -1146,7 +1172,7 @@
       <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="51"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="37"/>
@@ -1155,7 +1181,7 @@
       <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="51"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="37"/>
@@ -1164,7 +1190,7 @@
       <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="52"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="37"/>
@@ -1196,7 +1222,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="52" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="16"/>
@@ -1207,7 +1233,7 @@
       <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="52"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
       <c r="D23" s="42"/>
@@ -1239,7 +1265,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="48" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="13"/>
@@ -1250,7 +1276,7 @@
       <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="46"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="20"/>
@@ -1276,7 +1302,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="47" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="35"/>
@@ -1285,21 +1311,21 @@
       <c r="E28" s="36"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="45"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="26"/>
       <c r="E29" s="36"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="45"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="26"/>
       <c r="E30" s="36"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="45"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="26"/>
@@ -1363,7 +1389,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1854,4 +1880,387 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFA0874-2E53-49E3-9B6E-3405FE2C6851}">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+    </row>
+    <row r="5" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+    </row>
+    <row r="6" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+    </row>
+    <row r="7" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="58"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+    </row>
+    <row r="8" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+    </row>
+    <row r="9" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+    </row>
+    <row r="10" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+    </row>
+    <row r="11" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+    </row>
+    <row r="12" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+    </row>
+    <row r="13" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+    </row>
+    <row r="14" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+    </row>
+    <row r="15" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+    </row>
+    <row r="16" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+    </row>
+    <row r="17" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+    </row>
+    <row r="18" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+    </row>
+    <row r="19" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+    </row>
+    <row r="20" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+    </row>
+    <row r="21" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+    </row>
+    <row r="22" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+    </row>
+    <row r="23" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+    </row>
+    <row r="24" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+    </row>
+    <row r="25" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+    </row>
+    <row r="26" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+    </row>
+    <row r="27" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+    </row>
+    <row r="28" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+    </row>
+    <row r="29" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+    </row>
+    <row r="30" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+    </row>
+    <row r="31" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+    </row>
+    <row r="32" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+    </row>
+    <row r="33" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+    </row>
+    <row r="34" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+    </row>
+    <row r="35" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+    </row>
+    <row r="36" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+    </row>
+    <row r="37" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+    </row>
+    <row r="38" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+    </row>
+    <row r="39" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+    </row>
+    <row r="40" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+    </row>
+    <row r="41" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+    </row>
+    <row r="42" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="55"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+    </row>
+    <row r="43" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="55"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+    </row>
+    <row r="44" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="55"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+    </row>
+    <row r="45" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="55"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+    </row>
+    <row r="46" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+    </row>
+    <row r="47" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+    </row>
+    <row r="48" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="55"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+    </row>
+    <row r="49" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+    </row>
+    <row r="50" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="55"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>